--- a/level-3/hackerearth/phase-3-graph-1/hackerearth-phase-3-graph-1.xlsx
+++ b/level-3/hackerearth/phase-3-graph-1/hackerearth-phase-3-graph-1.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACDE8CE-6B05-4928-87A3-0E52E2FE2489}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3AD673-012A-43B9-BC79-3DF3058A628E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - graph 1" sheetId="14" r:id="rId1"/>
+    <sheet name="graph-1" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -651,12 +664,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -669,22 +682,13 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,259 +732,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -1503,81 +1255,81 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C165)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C165)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D165)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E165)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F165)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G165)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H165)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1596,17 +1348,17 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H35" si="0">SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H35" si="1">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1617,16 +1369,16 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="13" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1643,11 +1395,11 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1664,11 +1416,11 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1685,11 +1437,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1706,11 +1458,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1727,11 +1479,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1748,11 +1500,11 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1763,17 +1515,17 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1790,11 +1542,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1811,11 +1563,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1832,11 +1584,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1853,11 +1605,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1874,11 +1626,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1889,17 +1641,17 @@
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1916,11 +1668,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1937,11 +1689,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1952,17 +1704,17 @@
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1979,11 +1731,11 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2000,11 +1752,11 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2021,11 +1773,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2042,11 +1794,11 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2063,11 +1815,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2084,11 +1836,11 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2105,11 +1857,11 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2126,11 +1878,11 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2141,17 +1893,17 @@
       <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2162,17 +1914,17 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2189,11 +1941,11 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2210,11 +1962,11 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2225,17 +1977,17 @@
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2246,17 +1998,17 @@
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2273,11 +2025,11 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" ref="H36:H67" si="1">SUM(C36:G36)</f>
+        <f t="shared" ref="H36:H67" si="2">SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2294,11 +2046,11 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2315,11 +2067,11 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2336,11 +2088,11 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2357,11 +2109,11 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2372,17 +2124,17 @@
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2393,17 +2145,17 @@
       <c r="B42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="13" t="s">
+      <c r="J42" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2414,17 +2166,17 @@
       <c r="B43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="13" t="s">
+      <c r="J43" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2435,17 +2187,17 @@
       <c r="B44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2456,17 +2208,17 @@
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2483,11 +2235,11 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2498,17 +2250,17 @@
       <c r="B47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2525,11 +2277,11 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2546,11 +2298,11 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2567,11 +2319,11 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2588,11 +2340,11 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2603,17 +2355,17 @@
       <c r="B52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2624,17 +2376,17 @@
       <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2651,11 +2403,11 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="13" t="s">
+      <c r="J54" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2666,17 +2418,17 @@
       <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="13" t="s">
+      <c r="J55" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2687,17 +2439,17 @@
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2714,11 +2466,11 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2729,17 +2481,17 @@
       <c r="B58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2750,17 +2502,17 @@
       <c r="B59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="13" t="s">
+      <c r="J59" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2771,17 +2523,17 @@
       <c r="B60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="13" t="s">
+      <c r="J60" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2792,16 +2544,16 @@
       <c r="B61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="14" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2812,16 +2564,16 @@
       <c r="B62" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="14" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2838,10 +2590,10 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="14" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2858,10 +2610,10 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="14" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2878,10 +2630,10 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="14" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2898,10 +2650,10 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="14" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2912,16 +2664,16 @@
       <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="14" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2932,16 +2684,16 @@
       <c r="B68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" ref="H68:H99" si="2">SUM(C68:G68)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="14" t="s">
+        <f t="shared" ref="H68:H99" si="3">SUM(C68:G68)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2958,10 +2710,10 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2972,16 +2724,16 @@
       <c r="B70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2992,16 +2744,16 @@
       <c r="B71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3012,16 +2764,16 @@
       <c r="B72" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3032,16 +2784,16 @@
       <c r="B73" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3052,16 +2804,16 @@
       <c r="B74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3072,16 +2824,16 @@
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3092,16 +2844,16 @@
       <c r="B76" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3112,16 +2864,16 @@
       <c r="B77" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3132,16 +2884,16 @@
       <c r="B78" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3158,11 +2910,11 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I79" s="2"/>
-      <c r="J79" s="13" t="s">
+      <c r="J79" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3179,11 +2931,11 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I80" s="2"/>
-      <c r="J80" s="13" t="s">
+      <c r="J80" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3194,17 +2946,17 @@
       <c r="B81" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I81" s="2"/>
-      <c r="J81" s="13" t="s">
+      <c r="J81" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3215,17 +2967,17 @@
       <c r="B82" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I82" s="2"/>
-      <c r="J82" s="13" t="s">
+      <c r="J82" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3242,11 +2994,11 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I83" s="2"/>
-      <c r="J83" s="13" t="s">
+      <c r="J83" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3263,11 +3015,11 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I84" s="2"/>
-      <c r="J84" s="13" t="s">
+      <c r="J84" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3278,17 +3030,17 @@
       <c r="B85" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I85" s="2"/>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3299,17 +3051,17 @@
       <c r="B86" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I86" s="2"/>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3326,11 +3078,11 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I87" s="2"/>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3341,17 +3093,17 @@
       <c r="B88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I88" s="2"/>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3368,10 +3120,10 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3388,10 +3140,10 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3402,16 +3154,16 @@
       <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3422,16 +3174,16 @@
       <c r="B92" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3448,10 +3200,10 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3462,16 +3214,16 @@
       <c r="B94" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3482,16 +3234,16 @@
       <c r="B95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3502,16 +3254,16 @@
       <c r="B96" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3522,16 +3274,16 @@
       <c r="B97" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3542,16 +3294,16 @@
       <c r="B98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3562,16 +3314,16 @@
       <c r="B99" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3582,16 +3334,16 @@
       <c r="B100" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <f t="shared" ref="H100:H124" si="3">SUM(C100:G100)</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="14" t="s">
+        <f t="shared" ref="H100:H124" si="4">SUM(C100:G100)</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3602,16 +3354,16 @@
       <c r="B101" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3622,16 +3374,16 @@
       <c r="B102" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3648,11 +3400,11 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I103" s="2"/>
-      <c r="J103" s="13" t="s">
+      <c r="J103" s="10" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3669,11 +3421,11 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I104" s="2"/>
-      <c r="J104" s="13" t="s">
+      <c r="J104" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3684,17 +3436,17 @@
       <c r="B105" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
       <c r="H105" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I105" s="2"/>
-      <c r="J105" s="13" t="s">
+      <c r="J105" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3705,17 +3457,17 @@
       <c r="B106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
       <c r="H106" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I106" s="2"/>
-      <c r="J106" s="13" t="s">
+      <c r="J106" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3732,11 +3484,11 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I107" s="2"/>
-      <c r="J107" s="13" t="s">
+      <c r="J107" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3753,11 +3505,11 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I108" s="2"/>
-      <c r="J108" s="13" t="s">
+      <c r="J108" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3768,17 +3520,17 @@
       <c r="B109" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
       <c r="H109" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I109" s="2"/>
-      <c r="J109" s="13" t="s">
+      <c r="J109" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3789,17 +3541,17 @@
       <c r="B110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
       <c r="H110" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I110" s="2"/>
-      <c r="J110" s="13" t="s">
+      <c r="J110" s="10" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3816,11 +3568,11 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I111" s="2"/>
-      <c r="J111" s="13" t="s">
+      <c r="J111" s="10" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3831,17 +3583,17 @@
       <c r="B112" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
       <c r="H112" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I112" s="2"/>
-      <c r="J112" s="13" t="s">
+      <c r="J112" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3858,10 +3610,10 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3878,10 +3630,10 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3892,16 +3644,16 @@
       <c r="B115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
       <c r="H115" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3912,16 +3664,16 @@
       <c r="B116" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
       <c r="H116" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3938,10 +3690,10 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3952,16 +3704,16 @@
       <c r="B118" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
       <c r="H118" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3972,16 +3724,16 @@
       <c r="B119" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
       <c r="H119" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3992,16 +3744,16 @@
       <c r="B120" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
       <c r="H120" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4012,16 +3764,16 @@
       <c r="B121" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
       <c r="H121" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4032,16 +3784,16 @@
       <c r="B122" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
       <c r="H122" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4052,16 +3804,16 @@
       <c r="B123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
       <c r="H123" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4072,16 +3824,16 @@
       <c r="B124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
       <c r="H124" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4092,16 +3844,16 @@
       <c r="B125" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="11">
-        <f t="shared" ref="H125:H144" si="4">SUM(C125:G125)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="14" t="s">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="7">
+        <f t="shared" ref="H125:H144" si="5">SUM(C125:G125)</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4112,16 +3864,16 @@
       <c r="B126" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="14" t="s">
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4132,17 +3884,17 @@
       <c r="B127" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I127" s="12"/>
-      <c r="J127" s="13" t="s">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="2"/>
+      <c r="J127" s="10" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4153,17 +3905,17 @@
       <c r="B128" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I128" s="12"/>
-      <c r="J128" s="13" t="s">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="2"/>
+      <c r="J128" s="10" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4174,17 +3926,17 @@
       <c r="B129" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I129" s="12"/>
-      <c r="J129" s="13" t="s">
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="2"/>
+      <c r="J129" s="10" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4195,17 +3947,17 @@
       <c r="B130" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I130" s="12"/>
-      <c r="J130" s="13" t="s">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="2"/>
+      <c r="J130" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4216,17 +3968,17 @@
       <c r="B131" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I131" s="12"/>
-      <c r="J131" s="13" t="s">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I131" s="2"/>
+      <c r="J131" s="10" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4237,17 +3989,17 @@
       <c r="B132" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I132" s="12"/>
-      <c r="J132" s="13" t="s">
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I132" s="2"/>
+      <c r="J132" s="10" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4258,17 +4010,17 @@
       <c r="B133" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I133" s="12"/>
-      <c r="J133" s="13" t="s">
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I133" s="2"/>
+      <c r="J133" s="10" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4279,17 +4031,17 @@
       <c r="B134" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I134" s="12"/>
-      <c r="J134" s="13" t="s">
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I134" s="2"/>
+      <c r="J134" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4300,17 +4052,17 @@
       <c r="B135" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I135" s="12"/>
-      <c r="J135" s="13" t="s">
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="2"/>
+      <c r="J135" s="10" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4321,17 +4073,17 @@
       <c r="B136" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I136" s="12"/>
-      <c r="J136" s="13" t="s">
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I136" s="2"/>
+      <c r="J136" s="10" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4342,17 +4094,17 @@
       <c r="B137" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I137" s="12"/>
-      <c r="J137" s="13" t="s">
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I137" s="2"/>
+      <c r="J137" s="10" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4363,17 +4115,17 @@
       <c r="B138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I138" s="12"/>
-      <c r="J138" s="13" t="s">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I138" s="2"/>
+      <c r="J138" s="10" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4384,17 +4136,17 @@
       <c r="B139" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I139" s="12"/>
-      <c r="J139" s="13" t="s">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I139" s="2"/>
+      <c r="J139" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4405,17 +4157,17 @@
       <c r="B140" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I140" s="12"/>
-      <c r="J140" s="13" t="s">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I140" s="2"/>
+      <c r="J140" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4426,17 +4178,17 @@
       <c r="B141" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I141" s="12"/>
-      <c r="J141" s="13" t="s">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I141" s="2"/>
+      <c r="J141" s="10" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4447,17 +4199,17 @@
       <c r="B142" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I142" s="12"/>
-      <c r="J142" s="13" t="s">
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I142" s="2"/>
+      <c r="J142" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4468,17 +4220,17 @@
       <c r="B143" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I143" s="12"/>
-      <c r="J143" s="13" t="s">
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I143" s="2"/>
+      <c r="J143" s="10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4489,17 +4241,17 @@
       <c r="B144" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I144" s="12"/>
-      <c r="J144" s="13" t="s">
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I144" s="2"/>
+      <c r="J144" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4507,211 +4259,211 @@
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="H145" s="7"/>
-      <c r="J145" s="14"/>
+      <c r="J145" s="11"/>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="H146" s="7"/>
-      <c r="J146" s="14"/>
+      <c r="J146" s="11"/>
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="H147" s="7"/>
-      <c r="J147" s="14"/>
+      <c r="J147" s="11"/>
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="H148" s="7"/>
-      <c r="J148" s="14"/>
+      <c r="J148" s="11"/>
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="H149" s="7"/>
-      <c r="J149" s="14"/>
+      <c r="J149" s="11"/>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="H150" s="7"/>
-      <c r="J150" s="14"/>
+      <c r="J150" s="11"/>
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="H151" s="7"/>
-      <c r="J151" s="14"/>
+      <c r="J151" s="11"/>
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="H152" s="7"/>
-      <c r="J152" s="14"/>
+      <c r="J152" s="11"/>
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="H153" s="7"/>
-      <c r="J153" s="14"/>
+      <c r="J153" s="11"/>
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="H154" s="7"/>
-      <c r="J154" s="14"/>
+      <c r="J154" s="11"/>
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="H155" s="7"/>
-      <c r="J155" s="14"/>
+      <c r="J155" s="11"/>
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="H156" s="7"/>
-      <c r="J156" s="14"/>
+      <c r="J156" s="11"/>
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="H157" s="7"/>
-      <c r="J157" s="14"/>
+      <c r="J157" s="11"/>
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="H158" s="7"/>
-      <c r="J158" s="14"/>
+      <c r="J158" s="11"/>
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="H159" s="7"/>
-      <c r="J159" s="14"/>
+      <c r="J159" s="11"/>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="H160" s="7"/>
-      <c r="J160" s="14"/>
+      <c r="J160" s="11"/>
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="H161" s="7"/>
-      <c r="J161" s="14"/>
+      <c r="J161" s="11"/>
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="H162" s="7"/>
-      <c r="J162" s="14"/>
+      <c r="J162" s="11"/>
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="H163" s="7"/>
-      <c r="J163" s="14"/>
+      <c r="J163" s="11"/>
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="H164" s="7"/>
-      <c r="J164" s="14"/>
+      <c r="J164" s="11"/>
     </row>
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="H165" s="7"/>
-      <c r="J165" s="14"/>
+      <c r="J165" s="11"/>
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="H166" s="7"/>
-      <c r="J166" s="14"/>
+      <c r="J166" s="11"/>
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="H167" s="7"/>
-      <c r="J167" s="14"/>
+      <c r="J167" s="11"/>
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="H168" s="7"/>
-      <c r="J168" s="14"/>
+      <c r="J168" s="11"/>
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="H169" s="7"/>
-      <c r="J169" s="14"/>
+      <c r="J169" s="11"/>
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="H170" s="7"/>
-      <c r="J170" s="14"/>
+      <c r="J170" s="11"/>
     </row>
     <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="H171" s="7"/>
-      <c r="J171" s="14"/>
+      <c r="J171" s="11"/>
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="H172" s="7"/>
-      <c r="J172" s="14"/>
+      <c r="J172" s="11"/>
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="H173" s="7"/>
-      <c r="J173" s="14"/>
+      <c r="J173" s="11"/>
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="H174" s="7"/>
-      <c r="J174" s="14"/>
+      <c r="J174" s="11"/>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="H175" s="7"/>
-      <c r="J175" s="14"/>
+      <c r="J175" s="11"/>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="H176" s="7"/>
-      <c r="J176" s="14"/>
+      <c r="J176" s="11"/>
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="H177" s="7"/>
-      <c r="J177" s="14"/>
+      <c r="J177" s="11"/>
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="H178" s="7"/>
-      <c r="J178" s="14"/>
+      <c r="J178" s="11"/>
     </row>
     <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="H179" s="7"/>
-      <c r="J179" s="14"/>
+      <c r="J179" s="11"/>
     </row>
     <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
@@ -4750,127 +4502,127 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="60" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="59" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="58" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="83" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="56" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="cellIs" dxfId="55" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="67" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="52" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="51" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="50" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:J52 J54:J57">
-    <cfRule type="cellIs" dxfId="45" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:J58">
-    <cfRule type="cellIs" dxfId="44" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="43" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="42" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:I52 I54:I57">
-    <cfRule type="cellIs" dxfId="41" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="40" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:I58">
-    <cfRule type="cellIs" dxfId="38" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141:J144">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J132">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141:I144">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/level-3/hackerearth/phase-3-graph-1/hackerearth-phase-3-graph-1.xlsx
+++ b/level-3/hackerearth/phase-3-graph-1/hackerearth-phase-3-graph-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3AD673-012A-43B9-BC79-3DF3058A628E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C28399F-16A4-4F54-846E-C6E30CE0B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4501,131 +4501,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="24" priority="105" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="23" priority="104" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="22" priority="103" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="21" priority="83" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="20" priority="80" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="cellIs" dxfId="19" priority="71" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="cellIs" dxfId="18" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="17" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="16" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="15" priority="79" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="14" priority="78" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50:J52 J54:J57">
-    <cfRule type="cellIs" dxfId="13" priority="72" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50:J58">
-    <cfRule type="cellIs" dxfId="12" priority="69" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="11" priority="68" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="10" priority="65" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:I52 I54:I57">
-    <cfRule type="cellIs" dxfId="9" priority="64" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="8" priority="63" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="7" priority="62" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:I58">
-    <cfRule type="cellIs" dxfId="6" priority="61" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J141:J144">
-    <cfRule type="cellIs" dxfId="5" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J128">
-    <cfRule type="cellIs" dxfId="4" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J132">
-    <cfRule type="cellIs" dxfId="3" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I141:I144">
-    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{29852A01-79B9-4A44-BA8D-6C96408266F9}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{D8D30D69-985F-405A-81DF-D405E934DB41}"/>
